--- a/resources/БАЗА ДАННЫХ/litefinance/excel/ArtIntelliCow.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/ArtIntelliCow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 09:30</t>
+          <t>2023.11.29 15:09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.65964</t>
+          <t>0.61505</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 11:48</t>
+          <t>2023.11.30 11:19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.66025</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0,65 USD</t>
+          <t>1,01 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.23 07:18</t>
+          <t>2023.11.29 16:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.65677</t>
+          <t>0.61702</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.24 15:42</t>
+          <t>2023.11.29 16:12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.65768</t>
+          <t>0.61568</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0,95 USD</t>
+          <t>1,30 USD</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.22 09:08</t>
+          <t>2023.11.29 09:19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.25317</t>
+          <t>0.61686</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.22 16:09</t>
+          <t>2023.11.29 11:46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.24672</t>
+          <t>0.61464</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6,41 USD</t>
+          <t>2,18 USD</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.22 10:12</t>
+          <t>2023.11.29 06:14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.65494</t>
+          <t>0.61919</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.22 15:20</t>
+          <t>2023.11.29 07:17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.65379</t>
+          <t>0.61818</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,11 USD</t>
+          <t>0,97 USD</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.21 14:08</t>
+          <t>2023.11.29 06:14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.65805</t>
+          <t>0.61926</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.22 07:55</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.65308</t>
+          <t>0.61864</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4,93 USD</t>
+          <t>0,58 USD</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.21 11:51</t>
+          <t>2023.11.29 06:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.65703</t>
+          <t>0.61961</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.21 16:30</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.65627</t>
+          <t>0.61862</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,72 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
@@ -745,37 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.21 10:46</t>
+          <t>2023.11.29 06:12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.6565</t>
+          <t>0.6197</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.21 11:15</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.65639</t>
+          <t>0.61862</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0,15 USD</t>
+          <t>1,04 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.21 08:17</t>
+          <t>2023.11.29 06:09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.65755</t>
+          <t>0.62033</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.21 10:57</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.65609</t>
+          <t>0.61862</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1,42 USD</t>
+          <t>1,67 USD</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.21 09:34</t>
+          <t>2023.11.29 05:21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.65809</t>
+          <t>0.61902</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.21 10:47</t>
+          <t>2023.11.29 05:38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6565</t>
+          <t>0.61963</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1,55 USD</t>
+          <t>-0,65 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.21 07:11</t>
+          <t>2023.11.29 03:07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.65686</t>
+          <t>0.61932</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.21 08:16</t>
+          <t>2023.11.29 05:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.65738</t>
+          <t>0.61963</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,48 USD</t>
+          <t>-0,35 USD</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,27 +923,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.21 02:20</t>
+          <t>2023.11.28 22:40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.65719</t>
+          <t>0.61361</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.21 07:21</t>
+          <t>2023.11.29 00:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.65628</t>
+          <t>0.61487</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,87 USD</t>
+          <t>-1,30 USD</t>
         </is>
       </c>
     </row>
@@ -955,37 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.21 03:48</t>
+          <t>2023.11.28 20:49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.65779</t>
+          <t>0.61384</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.21 05:31</t>
+          <t>2023.11.29 00:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.65859</t>
+          <t>0.61487</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,76 USD</t>
+          <t>-1,07 USD</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,27 +1007,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.20 21:20</t>
+          <t>2023.11.28 21:02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.6564</t>
+          <t>0.61369</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.21 02:16</t>
+          <t>2023.11.28 21:22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.65722</t>
+          <t>0.61277</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-0,86 USD</t>
+          <t>0,88 USD</t>
         </is>
       </c>
     </row>
@@ -1039,37 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.21 01:52</t>
+          <t>2023.11.28 21:08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.65701</t>
+          <t>0.61335</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.21 01:54</t>
+          <t>2023.11.28 21:22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.65691</t>
+          <t>0.61271</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-0,14 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.20 10:36</t>
+          <t>2023.11.28 20:14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.65573</t>
+          <t>0.61315</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.20 21:18</t>
+          <t>2023.11.28 20:43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.6564</t>
+          <t>0.61368</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-0,71 USD</t>
+          <t>-0,57 USD</t>
         </is>
       </c>
     </row>
@@ -1123,37 +1123,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.20 15:44</t>
+          <t>2023.11.28 20:40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.65444</t>
+          <t>0.61369</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.20 16:05</t>
+          <t>2023.11.28 20:41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.6544</t>
+          <t>0.61362</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.20 15:21</t>
+          <t>2023.11.28 20:27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.65374</t>
+          <t>0.61309</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.20 15:39</t>
+          <t>2023.11.28 20:36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.65412</t>
+          <t>0.61347</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,34 USD</t>
+          <t>-0,42 USD</t>
         </is>
       </c>
     </row>
@@ -1207,37 +1207,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.20 10:59</t>
+          <t>2023.11.28 19:12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.65627</t>
+          <t>0.61217</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.20 11:00</t>
+          <t>2023.11.28 20:11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.65595</t>
+          <t>0.61319</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-0,36 USD</t>
+          <t>-1,06 USD</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.20 10:36</t>
+          <t>2023.11.28 17:47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.65599</t>
+          <t>0.6142</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.20 10:58</t>
+          <t>2023.11.28 20:11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.65619</t>
+          <t>0.61319</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-0,24 USD</t>
+          <t>0,97 USD</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.20 10:33</t>
+          <t>2023.11.28 19:02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.65607</t>
+          <t>0.61268</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.20 10:34</t>
+          <t>2023.11.28 19:17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.65608</t>
+          <t>0.61203</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-0,03 USD</t>
+          <t>-0,69 USD</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.20 10:03</t>
+          <t>2023.11.28 17:46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.65511</t>
+          <t>0.61443</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.20 10:34</t>
+          <t>2023.11.28 17:54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.65608</t>
+          <t>0.61451</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-1,01 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
@@ -1375,37 +1375,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.20 10:31</t>
+          <t>2023.11.28 17:23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.65571</t>
+          <t>0.61375</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.20 10:33</t>
+          <t>2023.11.28 17:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.65602</t>
+          <t>0.61431</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>-0,60 USD</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.20 10:30</t>
+          <t>2023.11.28 17:41</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.65576</t>
+          <t>0.61422</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.20 10:31</t>
+          <t>2023.11.28 17:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.65563</t>
+          <t>0.6141</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0,17 USD</t>
+          <t>-0,16 USD</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.20 08:57</t>
+          <t>2023.11.28 17:23</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.65535</t>
+          <t>0.61406</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.20 10:19</t>
+          <t>2023.11.28 17:26</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.65568</t>
+          <t>0.61424</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>-0,22 USD</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.20 08:47</t>
+          <t>2023.11.28 17:09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.6557</t>
+          <t>0.61364</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.20 09:04</t>
+          <t>2023.11.28 17:21</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.65577</t>
+          <t>0.61422</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-0,11 USD</t>
+          <t>-0,62 USD</t>
         </is>
       </c>
     </row>
@@ -1543,37 +1543,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.20 08:47</t>
+          <t>2023.11.28 17:18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.65582</t>
+          <t>0.61397</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.20 09:01</t>
+          <t>2023.11.28 17:19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.65552</t>
+          <t>0.61408</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.20 06:09</t>
+          <t>2023.11.28 17:11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.65486</t>
+          <t>0.61341</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.20 08:45</t>
+          <t>2023.11.28 17:14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.65547</t>
+          <t>0.61384</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-0,65 USD</t>
+          <t>-0,47 USD</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.20 05:41</t>
+          <t>2023.11.28 16:40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.6553</t>
+          <t>0.61277</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.20 08:45</t>
+          <t>2023.11.28 17:07</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.65547</t>
+          <t>0.61362</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-0,21 USD</t>
+          <t>-0,89 USD</t>
         </is>
       </c>
     </row>
@@ -1669,37 +1669,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.17 11:09</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.64956</t>
+          <t>0.61358</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.19 23:54</t>
+          <t>2023.11.28 17:07</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.65174</t>
+          <t>0.61351</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-2,22 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.17 16:35</t>
+          <t>2023.11.28 15:49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.08808</t>
+          <t>0.61127</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.17 21:55</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.09084</t>
+          <t>0.61187</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-2,80 USD</t>
+          <t>-0,64 USD</t>
         </is>
       </c>
     </row>
@@ -1753,37 +1753,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.17 14:35</t>
+          <t>2023.11.28 16:04</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.65052</t>
+          <t>0.61175</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.17 21:26</t>
+          <t>2023.11.28 16:05</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.65141</t>
+          <t>0.61175</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-0,93 USD</t>
+          <t>-0,04 USD</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.17 11:15</t>
+          <t>2023.11.24 16:16</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.65009</t>
+          <t>1.09412</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.17 13:22</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>1.09789</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-3,81 USD</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.17 11:23</t>
+          <t>2023.11.24 09:35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.65059</t>
+          <t>0.60555</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.17 12:49</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.64984</t>
+          <t>0.61099</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,71 USD</t>
+          <t>-5,48 USD</t>
         </is>
       </c>
     </row>
@@ -1884,32 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.17 11:07</t>
+          <t>2023.11.23 02:29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.64919</t>
+          <t>0.655</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.17 11:25</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.65046</t>
+          <t>0.66287</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1,23 USD</t>
+          <t>-7,91 USD</t>
         </is>
       </c>
     </row>
@@ -1926,32 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.17 10:24</t>
+          <t>2023.11.27 09:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.6481</t>
+          <t>0.65964</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.17 11:24</t>
+          <t>2023.11.27 11:48</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.6505</t>
+          <t>0.66025</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2,36 USD</t>
+          <t>-0,65 USD</t>
         </is>
       </c>
     </row>
@@ -1968,32 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.17 09:59</t>
+          <t>2023.11.23 07:18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.64788</t>
+          <t>0.65677</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.17 10:22</t>
+          <t>2023.11.24 15:42</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.64816</t>
+          <t>0.65768</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>-0,95 USD</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.17 10:20</t>
+          <t>2023.11.22 09:08</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.64802</t>
+          <t>1.25317</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.17 10:22</t>
+          <t>2023.11.22 16:09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.64818</t>
+          <t>1.24672</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-0,20 USD</t>
+          <t>6,41 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.17 10:02</t>
+          <t>2023.11.22 10:12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.64792</t>
+          <t>0.65494</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.17 10:05</t>
+          <t>2023.11.22 15:20</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.64809</t>
+          <t>0.65379</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-0,21 USD</t>
+          <t>1,11 USD</t>
         </is>
       </c>
     </row>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.17 08:40</t>
+          <t>2023.11.21 14:08</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.64678</t>
+          <t>0.65805</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.17 10:01</t>
+          <t>2023.11.22 07:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.64803</t>
+          <t>0.65308</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-1,29 USD</t>
+          <t>4,93 USD</t>
         </is>
       </c>
     </row>
@@ -2131,37 +2131,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.17 08:38</t>
+          <t>2023.11.21 11:51</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.23794</t>
+          <t>0.65703</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.17 08:40</t>
+          <t>2023.11.21 16:30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.23811</t>
+          <t>0.65627</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.17 08:33</t>
+          <t>2023.11.21 10:46</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.64663</t>
+          <t>0.6565</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.17 08:38</t>
+          <t>2023.11.21 11:15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.64689</t>
+          <t>0.65639</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,22 USD</t>
+          <t>-0,15 USD</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.16 22:04</t>
+          <t>2023.11.21 08:17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.64659</t>
+          <t>0.65755</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.17 02:32</t>
+          <t>2023.11.21 10:57</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.64607</t>
+          <t>0.65609</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>1,42 USD</t>
         </is>
       </c>
     </row>
@@ -2262,32 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.16 17:48</t>
+          <t>2023.11.21 09:34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.64648</t>
+          <t>0.65809</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.17 02:32</t>
+          <t>2023.11.21 10:47</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.64607</t>
+          <t>0.6565</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-0,45 USD</t>
+          <t>1,55 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.16 16:48</t>
+          <t>2023.11.21 07:11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.64821</t>
+          <t>0.65686</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.16 17:21</t>
+          <t>2023.11.21 08:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.64757</t>
+          <t>0.65738</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-0,68 USD</t>
+          <t>0,48 USD</t>
         </is>
       </c>
     </row>
@@ -2346,32 +2346,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.16 16:47</t>
+          <t>2023.11.21 02:20</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.64811</t>
+          <t>0.65719</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.16 17:21</t>
+          <t>2023.11.21 07:21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.64757</t>
+          <t>0.65628</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>0,87 USD</t>
         </is>
       </c>
     </row>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.16 15:19</t>
+          <t>2023.11.21 03:48</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.64897</t>
+          <t>0.65779</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.16 15:25</t>
+          <t>2023.11.21 05:31</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.64805</t>
+          <t>0.65859</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-0,96 USD</t>
+          <t>0,76 USD</t>
         </is>
       </c>
     </row>
@@ -2430,32 +2430,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.16 14:08</t>
+          <t>2023.11.20 21:20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.64821</t>
+          <t>0.6564</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.16 15:25</t>
+          <t>2023.11.21 02:16</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.64805</t>
+          <t>0.65722</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-0,20 USD</t>
+          <t>-0,86 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.16 13:25</t>
+          <t>2023.11.21 01:52</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.64793</t>
+          <t>0.65701</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.16 15:25</t>
+          <t>2023.11.21 01:54</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.64805</t>
+          <t>0.65691</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>-0,14 USD</t>
         </is>
       </c>
     </row>
@@ -2514,32 +2514,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.16 13:24</t>
+          <t>2023.11.20 10:36</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.64754</t>
+          <t>0.65573</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.16 15:25</t>
+          <t>2023.11.20 21:18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.64805</t>
+          <t>0.6564</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,47 USD</t>
+          <t>-0,71 USD</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.16 08:51</t>
+          <t>2023.11.20 15:44</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.64816</t>
+          <t>0.65444</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.16 13:22</t>
+          <t>2023.11.20 16:05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.64748</t>
+          <t>0.6544</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-0,72 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -2598,32 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.16 08:20</t>
+          <t>2023.11.20 15:21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.64724</t>
+          <t>0.65374</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.16 09:11</t>
+          <t>2023.11.20 15:39</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.64754</t>
+          <t>0.65412</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-0,34 USD</t>
+          <t>0,34 USD</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2645,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.16 07:39</t>
+          <t>2023.11.20 10:59</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.64795</t>
+          <t>0.65627</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.16 08:48</t>
+          <t>2023.11.20 11:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.64804</t>
+          <t>0.65595</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>-0,36 USD</t>
         </is>
       </c>
     </row>
@@ -2682,32 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.15 21:48</t>
+          <t>2023.11.20 10:36</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.65066</t>
+          <t>0.65599</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.16 01:42</t>
+          <t>2023.11.20 10:58</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.64969</t>
+          <t>0.65619</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-1,01 USD</t>
+          <t>-0,24 USD</t>
         </is>
       </c>
     </row>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.15 19:20</t>
+          <t>2023.11.20 10:33</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.65142</t>
+          <t>0.65607</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.15 21:25</t>
+          <t>2023.11.20 10:34</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.65059</t>
+          <t>0.65608</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-0,87 USD</t>
+          <t>-0,03 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.15 20:17</t>
+          <t>2023.11.20 10:03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.65056</t>
+          <t>0.65511</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.15 20:22</t>
+          <t>2023.11.20 10:34</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.65064</t>
+          <t>0.65608</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-0,12 USD</t>
+          <t>-1,01 USD</t>
         </is>
       </c>
     </row>
@@ -2813,27 +2813,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.15 18:07</t>
+          <t>2023.11.20 10:31</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.65195</t>
+          <t>0.65571</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.15 19:19</t>
+          <t>2023.11.20 10:33</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.65133</t>
+          <t>0.65602</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-0,66 USD</t>
+          <t>0,27 USD</t>
         </is>
       </c>
     </row>
@@ -2850,32 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.15 19:12</t>
+          <t>2023.11.20 10:30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.65142</t>
+          <t>0.65576</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.15 19:18</t>
+          <t>2023.11.20 10:31</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.65137</t>
+          <t>0.65563</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0,01 USD</t>
+          <t>-0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.15 18:12</t>
+          <t>2023.11.20 08:57</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.6513</t>
+          <t>0.65535</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.15 18:22</t>
+          <t>2023.11.20 10:19</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.65146</t>
+          <t>0.65568</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-0,20 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
@@ -2934,32 +2934,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.15 17:55</t>
+          <t>2023.11.20 08:47</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.65172</t>
+          <t>0.6557</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.15 18:11</t>
+          <t>2023.11.20 09:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.65148</t>
+          <t>0.65577</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-0,28 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
@@ -2976,32 +2976,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.15 17:18</t>
+          <t>2023.11.20 08:47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.65253</t>
+          <t>0.65582</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.15 17:35</t>
+          <t>2023.11.20 09:01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.65179</t>
+          <t>0.65552</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-0,78 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -3018,32 +3018,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.15 17:10</t>
+          <t>2023.11.20 06:09</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.6528</t>
+          <t>0.65486</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.15 17:35</t>
+          <t>2023.11.20 08:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.65179</t>
+          <t>0.65547</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-1,05 USD</t>
+          <t>-0,65 USD</t>
         </is>
       </c>
     </row>
@@ -3060,32 +3060,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.15 16:45</t>
+          <t>2023.11.20 05:41</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.65122</t>
+          <t>0.6553</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.15 17:21</t>
+          <t>2023.11.20 08:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.65229</t>
+          <t>0.65547</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1,03 USD</t>
+          <t>-0,21 USD</t>
         </is>
       </c>
     </row>
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.15 16:57</t>
+          <t>2023.11.17 11:09</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.65253</t>
+          <t>0.64956</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.15 17:06</t>
+          <t>2023.11.19 23:54</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.65286</t>
+          <t>0.65174</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>-2,22 USD</t>
         </is>
       </c>
     </row>
@@ -3139,37 +3139,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.15 16:34</t>
+          <t>2023.11.17 16:35</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.65086</t>
+          <t>1.08808</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.15 16:49</t>
+          <t>2023.11.17 21:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.65169</t>
+          <t>1.09084</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>-2,80 USD</t>
         </is>
       </c>
     </row>
@@ -3186,32 +3186,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.15 16:30</t>
+          <t>2023.11.17 14:35</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.6506</t>
+          <t>0.65052</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.15 16:49</t>
+          <t>2023.11.17 21:26</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.65168</t>
+          <t>0.65141</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1,04 USD</t>
+          <t>-0,93 USD</t>
         </is>
       </c>
     </row>
@@ -3228,32 +3228,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.15 16:17</t>
+          <t>2023.11.17 11:15</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.65037</t>
+          <t>0.65009</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.15 16:32</t>
+          <t>2023.11.17 13:22</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.65001</t>
+          <t>0.6494</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-0,40 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
@@ -3270,32 +3270,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.15 16:15</t>
+          <t>2023.11.17 11:23</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.65008</t>
+          <t>0.65059</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.15 16:32</t>
+          <t>2023.11.17 12:49</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.6501</t>
+          <t>0.64984</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-0,02 USD</t>
+          <t>0,71 USD</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.15 15:52</t>
+          <t>2023.11.17 11:07</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.64937</t>
+          <t>0.64919</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.15 16:32</t>
+          <t>2023.11.17 11:25</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.65011</t>
+          <t>0.65046</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,70 USD</t>
+          <t>1,23 USD</t>
         </is>
       </c>
     </row>
@@ -3354,32 +3354,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.15 15:57</t>
+          <t>2023.11.17 10:24</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.64868</t>
+          <t>0.6481</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.15 15:58</t>
+          <t>2023.11.17 11:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.64896</t>
+          <t>0.6505</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>2,36 USD</t>
         </is>
       </c>
     </row>
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.15 15:03</t>
+          <t>2023.11.17 09:59</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.65081</t>
+          <t>0.64788</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.15 15:51</t>
+          <t>2023.11.17 10:22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.64968</t>
+          <t>0.64816</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-1,17 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.15 15:10</t>
+          <t>2023.11.17 10:20</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.65004</t>
+          <t>0.64802</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.15 15:11</t>
+          <t>2023.11.17 10:22</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.64973</t>
+          <t>0.64818</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,27 USD</t>
+          <t>-0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3480,32 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.15 14:39</t>
+          <t>2023.11.17 10:02</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.65074</t>
+          <t>0.64792</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.15 15:10</t>
+          <t>2023.11.17 10:05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.65019</t>
+          <t>0.64809</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-0,59 USD</t>
+          <t>-0,21 USD</t>
         </is>
       </c>
     </row>
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.15 15:03</t>
+          <t>2023.11.17 08:40</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.65045</t>
+          <t>0.64678</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.15 15:06</t>
+          <t>2023.11.17 10:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.65038</t>
+          <t>0.64803</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,03 USD</t>
+          <t>-1,29 USD</t>
         </is>
       </c>
     </row>
@@ -3559,37 +3559,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.15 14:43</t>
+          <t>2023.11.17 08:38</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.65002</t>
+          <t>1.23794</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.15 14:46</t>
+          <t>2023.11.17 08:40</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.64964</t>
+          <t>1.23811</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,34 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.15 14:36</t>
+          <t>2023.11.17 08:33</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.65185</t>
+          <t>0.64663</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.15 14:37</t>
+          <t>2023.11.17 08:38</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.65131</t>
+          <t>0.64689</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>0,22 USD</t>
         </is>
       </c>
     </row>
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.15 14:34</t>
+          <t>2023.11.16 22:04</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.65144</t>
+          <t>0.64659</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.15 14:37</t>
+          <t>2023.11.17 02:32</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.65131</t>
+          <t>0.64607</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0,17 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.14 11:28</t>
+          <t>2023.11.16 17:48</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.63795</t>
+          <t>0.64648</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.15 14:30</t>
+          <t>2023.11.17 02:32</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.65351</t>
+          <t>0.64607</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>15,52 USD</t>
+          <t>-0,45 USD</t>
         </is>
       </c>
     </row>
@@ -3732,32 +3732,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.14 17:00</t>
+          <t>2023.11.16 16:48</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.64799</t>
+          <t>0.64821</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.15 14:30</t>
+          <t>2023.11.16 17:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.65363</t>
+          <t>0.64757</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-5,68 USD</t>
+          <t>-0,68 USD</t>
         </is>
       </c>
     </row>
@@ -3774,32 +3774,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.14 14:40</t>
+          <t>2023.11.16 16:47</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.64376</t>
+          <t>0.64811</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.15 14:30</t>
+          <t>2023.11.16 17:21</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.65363</t>
+          <t>0.64757</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-9,91 USD</t>
+          <t>-0,58 USD</t>
         </is>
       </c>
     </row>
@@ -3816,32 +3816,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.15 08:34</t>
+          <t>2023.11.16 15:19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.65058</t>
+          <t>0.64897</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.15 14:30</t>
+          <t>2023.11.16 15:25</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.65363</t>
+          <t>0.64805</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-3,09 USD</t>
+          <t>-0,96 USD</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.15 08:41</t>
+          <t>2023.11.16 14:08</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>150.601</t>
+          <t>0.64821</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.15 14:30</t>
+          <t>2023.11.16 15:25</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>150.148</t>
+          <t>0.64805</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-3,06 USD</t>
+          <t>-0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3900,32 +3900,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.15 12:06</t>
+          <t>2023.11.16 13:25</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.65214</t>
+          <t>0.64793</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.15 12:46</t>
+          <t>2023.11.16 15:25</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.6524</t>
+          <t>0.64805</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-0,30 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3942,32 +3942,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.15 12:00</t>
+          <t>2023.11.16 13:24</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.65166</t>
+          <t>0.64754</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.15 12:05</t>
+          <t>2023.11.16 15:25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.65196</t>
+          <t>0.64805</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-0,34 USD</t>
+          <t>0,47 USD</t>
         </is>
       </c>
     </row>
@@ -3979,37 +3979,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.15 08:05</t>
+          <t>2023.11.16 08:51</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.24726</t>
+          <t>0.64816</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.15 10:20</t>
+          <t>2023.11.16 13:22</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.24591</t>
+          <t>0.64748</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1,31 USD</t>
+          <t>-0,72 USD</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.15 02:26</t>
+          <t>2023.11.16 08:20</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>150.555</t>
+          <t>0.64724</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.15 09:48</t>
+          <t>2023.11.16 09:11</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>150.539</t>
+          <t>0.64754</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>-0,34 USD</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,27 +4073,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.15 08:29</t>
+          <t>2023.11.16 07:39</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.24767</t>
+          <t>0.64795</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.15 08:39</t>
+          <t>2023.11.16 08:48</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.2479</t>
+          <t>0.64804</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -4110,32 +4110,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.15 07:45</t>
+          <t>2023.11.15 21:48</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.65057</t>
+          <t>0.65066</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.15 08:09</t>
+          <t>2023.11.16 01:42</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.6494</t>
+          <t>0.64969</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1,13 USD</t>
+          <t>-1,01 USD</t>
         </is>
       </c>
     </row>
@@ -4152,32 +4152,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.15 07:23</t>
+          <t>2023.11.15 19:20</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.65058</t>
+          <t>0.65142</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.15 07:40</t>
+          <t>2023.11.15 21:25</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.6508</t>
+          <t>0.65059</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-0,26 USD</t>
+          <t>-0,87 USD</t>
         </is>
       </c>
     </row>
@@ -4199,27 +4199,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.15 01:57</t>
+          <t>2023.11.15 20:17</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.64933</t>
+          <t>0.65056</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.15 02:24</t>
+          <t>2023.11.15 20:22</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.64888</t>
+          <t>0.65064</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,41 USD</t>
+          <t>-0,12 USD</t>
         </is>
       </c>
     </row>
@@ -4236,32 +4236,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.15 01:53</t>
+          <t>2023.11.15 18:07</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.65195</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.15 01:55</t>
+          <t>2023.11.15 19:19</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.64917</t>
+          <t>0.65133</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-0,21 USD</t>
+          <t>-0,66 USD</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.14 19:47</t>
+          <t>2023.11.15 19:12</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.65004</t>
+          <t>0.65142</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.15 01:36</t>
+          <t>2023.11.15 19:18</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.64932</t>
+          <t>0.65137</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>0,01 USD</t>
         </is>
       </c>
     </row>
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.14 20:28</t>
+          <t>2023.11.15 18:12</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.65016</t>
+          <t>0.6513</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.15 01:32</t>
+          <t>2023.11.15 18:22</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.64936</t>
+          <t>0.65146</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,76 USD</t>
+          <t>-0,20 USD</t>
         </is>
       </c>
     </row>
@@ -4362,32 +4362,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.14 20:25</t>
+          <t>2023.11.15 17:55</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.64995</t>
+          <t>0.65172</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.14 20:27</t>
+          <t>2023.11.15 18:11</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.65008</t>
+          <t>0.65148</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-0,17 USD</t>
+          <t>-0,28 USD</t>
         </is>
       </c>
     </row>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.14 17:28</t>
+          <t>2023.11.15 17:18</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.64869</t>
+          <t>0.65253</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.14 17:34</t>
+          <t>2023.11.15 17:35</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.64916</t>
+          <t>0.65179</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,43 USD</t>
+          <t>-0,78 USD</t>
         </is>
       </c>
     </row>
@@ -4451,27 +4451,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.14 15:44</t>
+          <t>2023.11.15 17:10</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.64726</t>
+          <t>0.6528</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.14 15:47</t>
+          <t>2023.11.15 17:35</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.64737</t>
+          <t>0.65179</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>-1,05 USD</t>
         </is>
       </c>
     </row>
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.14 15:06</t>
+          <t>2023.11.15 16:45</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.64553</t>
+          <t>0.65122</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.14 15:10</t>
+          <t>2023.11.15 17:21</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.64586</t>
+          <t>0.65229</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,29 USD</t>
+          <t>1,03 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.14 14:36</t>
+          <t>2023.11.15 16:57</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.64389</t>
+          <t>0.65253</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.14 14:39</t>
+          <t>2023.11.15 17:06</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.64377</t>
+          <t>0.65286</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
@@ -4572,32 +4572,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.14 14:14</t>
+          <t>2023.11.15 16:34</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.63762</t>
+          <t>0.65086</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.14 14:28</t>
+          <t>2023.11.15 16:49</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.63743</t>
+          <t>0.65169</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,79 USD</t>
         </is>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.14 10:39</t>
+          <t>2023.11.15 16:30</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.63767</t>
+          <t>0.6506</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.14 12:43</t>
+          <t>2023.11.15 16:49</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.63675</t>
+          <t>0.65168</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-0,96 USD</t>
+          <t>1,04 USD</t>
         </is>
       </c>
     </row>
@@ -4661,25 +4661,1453 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>2023.11.15 16:17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.65037</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.15 16:32</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.65001</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-0,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.15 16:15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.65008</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.15 16:32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-0,02 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.64937</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.15 16:32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.65011</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.64868</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.64896</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-0,32 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.65081</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.64968</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-1,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.65004</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:11</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.64973</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0,27 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.65074</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:10</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.65019</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-0,59 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.65045</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.15 15:06</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.65038</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0,03 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:43</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.65002</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:46</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.64964</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0,34 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.65185</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.65131</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-0,58 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.65144</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:37</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.65131</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.14 11:28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.63795</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.65351</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>15,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.14 17:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.64799</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.65363</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-5,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.14 14:40</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.64376</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.65363</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-9,91 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:34</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.65058</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.65363</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-3,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:41</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>150.601</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.15 14:30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>150.148</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-3,06 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.11.15 12:06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.65214</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.15 12:46</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-0,30 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.15 12:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.65166</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.15 12:05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.65196</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-0,34 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.24726</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.15 10:20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.24591</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1,31 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.15 02:26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>150.555</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.15 09:48</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>150.539</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0,07 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.24767</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.2479</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0,19 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.11.15 07:45</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.65057</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.11.15 08:09</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1,13 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023.11.15 07:23</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.65058</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2023.11.15 07:40</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>-0,26 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023.11.15 01:57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.64933</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2023.11.15 02:24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.64888</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>0,41 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023.11.15 01:53</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.649</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2023.11.15 01:55</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.64917</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-0,21 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023.11.14 19:47</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.65004</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2023.11.15 01:36</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.64932</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023.11.14 20:28</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.65016</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2023.11.15 01:32</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.64936</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0,76 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023.11.14 20:25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.64995</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2023.11.14 20:27</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.65008</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>-0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023.11.14 17:28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.64869</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2023.11.14 17:34</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.64916</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>0,43 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023.11.14 15:44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.64726</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2023.11.14 15:47</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.64737</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0,07 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023.11.14 15:06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.64553</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2023.11.14 15:10</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.64586</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023.11.14 14:36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.64389</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2023.11.14 14:39</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.64377</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023.11.14 14:14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.63762</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2023.11.14 14:28</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.63743</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0,15 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>2023.11.14 10:39</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.63767</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2023.11.14 12:43</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.63675</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>-0,96 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023.11.14 10:39</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>0.63766</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>2023.11.14 12:24</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>0.63684</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>-0,86 USD</t>
         </is>
